--- a/data/trans_camb/P05B_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P05B_R-Clase-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>-3.69717299767483</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-3.093335750203413</v>
+        <v>-3.093335750203412</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>-1.756220623903915</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.680736927744254</v>
+        <v>-2.848954808602256</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.69578292280224</v>
+        <v>-4.086253876739235</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.208582113320027</v>
+        <v>-3.249830312957188</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-6.636743855390194</v>
+        <v>-6.541310101915773</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-6.718944688743801</v>
+        <v>-6.395951848440494</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-6.260802633739361</v>
+        <v>-6.081029148622338</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-3.443203133708395</v>
+        <v>-3.474905287833607</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-4.230153558439313</v>
+        <v>-4.273778115796682</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-3.772305423655226</v>
+        <v>-3.725231914939028</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.885527923311877</v>
+        <v>2.000702155729333</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-0.01897547209963976</v>
+        <v>-0.02612866794658292</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.064326692029272</v>
+        <v>0.9021496536586029</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-1.518752961087705</v>
+        <v>-1.280995425883778</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-1.535625286076903</v>
+        <v>-1.079898982609652</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-0.766040367503209</v>
+        <v>-0.8529494891924944</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>-0.0550498286338764</v>
+        <v>-0.07463587141955537</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-1.161041689183028</v>
+        <v>-1.14737495832319</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-0.4328861455162438</v>
+        <v>-0.531657091370119</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>-0.7978472986282731</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.6675396508635649</v>
+        <v>-0.6675396508635648</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>-0.4604498506948556</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.6136518508378086</v>
+        <v>-0.6576064494429799</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.8621841875859789</v>
+        <v>-0.8797787303176531</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.7420337420588444</v>
+        <v>-0.7620850282757083</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-1</v>
+        <v>-0.9593085330591232</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.9568492919480756</v>
+        <v>-0.9480183091446287</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.8761210190974098</v>
+        <v>-0.883819873341292</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.721224012791072</v>
+        <v>-0.7325811880443437</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.8813663462076387</v>
+        <v>-0.8756217244947893</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.7602525359683626</v>
+        <v>-0.7573422461773558</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.8716962243984985</v>
+        <v>0.955056678796553</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.1770819901998407</v>
+        <v>0.2071466173051496</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.5815200415578652</v>
+        <v>0.4669044690641215</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.3500697276251443</v>
+        <v>-0.3047798458573269</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.2132310713487471</v>
+        <v>-0.1610155129043477</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.1754385851297027</v>
+        <v>-0.1899717545567362</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.02314294814353253</v>
+        <v>-0.001048721459116458</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.3194113307272722</v>
+        <v>-0.3148269367943058</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.112438621203991</v>
+        <v>-0.1442848135703257</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.845857447395416</v>
+        <v>-4.046321835169072</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-5.416445419341918</v>
+        <v>-5.40335365868846</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-5.681621482766889</v>
+        <v>-5.464200557786978</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-4.162930850365344</v>
+        <v>-3.947614195085785</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-4.111258318713797</v>
+        <v>-4.090245070251994</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-4.203664295802771</v>
+        <v>-4.17918833364838</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-3.125815047025363</v>
+        <v>-3.149624865541159</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-3.972478408395506</v>
+        <v>-3.902837879143132</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-3.959368922050023</v>
+        <v>-3.921663489600351</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.25960383224186</v>
+        <v>1.070082444473195</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-1.029754507874586</v>
+        <v>-1.098671266442572</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-1.094215461754938</v>
+        <v>-1.096928776035789</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.8218419122835647</v>
+        <v>0.9597845397439396</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.6504070302338864</v>
+        <v>0.7226687947838827</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3060451204734947</v>
+        <v>0.242869444821058</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2698675811499124</v>
+        <v>0.4059450853928929</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-0.8153726135968724</v>
+        <v>-0.5680899034546666</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-0.8784614636029211</v>
+        <v>-1.012742910943574</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.8205642708692062</v>
+        <v>-0.8491103492885936</v>
       </c>
       <c r="D14" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.9896295713263437</v>
+        <v>-0.9732650103125204</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.8115130747282789</v>
+        <v>-0.7941878361559371</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.8181380601628945</v>
+        <v>-0.8008413177680407</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.8282880096678745</v>
+        <v>-0.8244862976193007</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.7049990686176228</v>
+        <v>-0.6927708119433292</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.8643233935286725</v>
+        <v>-0.8496139649825769</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.8533921683792861</v>
+        <v>-0.8469887109974003</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.004348175948612</v>
+        <v>0.6898584404704722</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.1854414413475122</v>
+        <v>-0.08162098796196476</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.3735565018731891</v>
+        <v>-0.3262917098682551</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.4499961827926089</v>
+        <v>0.4770271890242785</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.4239392160261403</v>
+        <v>0.4796480586852209</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2682472438537038</v>
+        <v>0.1610864279118646</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1324343120580223</v>
+        <v>0.2336338331575062</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.207439162982415</v>
+        <v>-0.1780744618078735</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.3127667186774898</v>
+        <v>-0.3041485935869985</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.744924473970064</v>
+        <v>-2.922441314403716</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.898495203734216</v>
+        <v>-2.951490324116862</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.589695337067356</v>
+        <v>-2.668210080536959</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-9.803985307368094</v>
+        <v>-10.08000676937659</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-10.92787853985552</v>
+        <v>-10.80441060142386</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-9.951387922826315</v>
+        <v>-10.18250070185171</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-3.766768878837508</v>
+        <v>-3.731629791904203</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-4.215998612006765</v>
+        <v>-4.142037545478176</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-3.722637575003123</v>
+        <v>-3.799209106037595</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1443844603607725</v>
+        <v>-0.01271194098151021</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-0.1794923444174292</v>
+        <v>-0.07962643868632981</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.4652570342686023</v>
+        <v>0.3189995161393032</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-1.684262725504929</v>
+        <v>-1.553113011738972</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>-3.186786298270689</v>
+        <v>-3.080939685241994</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-2.174987827908951</v>
+        <v>-2.012423046102934</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>-0.93791197863871</v>
+        <v>-0.8396038217796844</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-1.423640270180892</v>
+        <v>-1.370844090829985</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-0.7245191364905286</v>
+        <v>-0.7825213540662703</v>
       </c>
     </row>
     <row r="19">
@@ -1208,29 +1208,29 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.8847872690035292</v>
+        <v>-0.8909322258234894</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.9452476947534528</v>
+        <v>-0.9377301047384357</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.853859240867953</v>
+        <v>-0.8739621609916505</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-1</v>
+        <v>-0.9546933218416991</v>
       </c>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="n">
-        <v>-0.994063755112181</v>
+        <v>-1</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.8951009542480725</v>
+        <v>-0.8694142848302475</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.9652895849536111</v>
+        <v>-0.9678411262648541</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.8572004952955521</v>
+        <v>-0.8755201027479979</v>
       </c>
     </row>
     <row r="21">
@@ -1241,29 +1241,29 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.3881228597720406</v>
+        <v>0.1668004178520332</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.1886282260686544</v>
+        <v>0.3259297953018088</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.6282664773941141</v>
+        <v>0.4869319091720917</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>-0.3484816306856641</v>
+        <v>-0.238486981919915</v>
       </c>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="n">
-        <v>-0.4156331362397643</v>
+        <v>-0.3949726643358958</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>-0.348094570424009</v>
+        <v>-0.2852542238698158</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.2673414367732413</v>
+        <v>-0.4498029486647415</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.2015498185978742</v>
+        <v>-0.2604366749212556</v>
       </c>
     </row>
     <row r="22">
@@ -1313,31 +1313,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.96761942217537</v>
+        <v>-2.849578600205497</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.532196355770064</v>
+        <v>-2.437973505314947</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-3.744754392615421</v>
+        <v>-3.633375746871955</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-4.474438183216312</v>
+        <v>-4.290034718934143</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-4.091011888940497</v>
+        <v>-4.056564702967338</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-5.331552413349818</v>
+        <v>-5.362974317792131</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-2.842540877570659</v>
+        <v>-2.940094532511314</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-2.554826586723758</v>
+        <v>-2.620429250039156</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-3.777144864786206</v>
+        <v>-3.700039719748226</v>
       </c>
     </row>
     <row r="24">
@@ -1348,31 +1348,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-0.2212311212166499</v>
+        <v>-0.1575555689410509</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2182306647434697</v>
+        <v>0.2243683997244641</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-1.299757035156436</v>
+        <v>-1.24052682501084</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-0.4057857819348983</v>
+        <v>-0.3563777103826244</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-0.2772086649533106</v>
+        <v>-0.1673927296614654</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-1.840877333599993</v>
+        <v>-1.913346514947835</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>-0.6408219239635962</v>
+        <v>-0.6269571712505213</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-0.4529601073408296</v>
+        <v>-0.3623079295311115</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-1.877790364008475</v>
+        <v>-1.824583094616016</v>
       </c>
     </row>
     <row r="25">
@@ -1389,7 +1389,7 @@
         <v>-0.3500551299320218</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.7346031017776106</v>
+        <v>-0.7346031017776105</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.4684455596392645</v>
@@ -1418,31 +1418,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.7090814507732963</v>
+        <v>-0.6970966373950039</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.6276163041107338</v>
+        <v>-0.6149236223896305</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.8750171696217627</v>
+        <v>-0.878666141963957</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.7297130789032439</v>
+        <v>-0.713174991279576</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.6815112690250044</v>
+        <v>-0.6816811495671951</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.8671984735202307</v>
+        <v>-0.8634775510856978</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.6470403448729664</v>
+        <v>-0.6453605713286344</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.5924262810916577</v>
+        <v>-0.5794052371902018</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.8328026011214604</v>
+        <v>-0.8309875425928206</v>
       </c>
     </row>
     <row r="27">
@@ -1453,31 +1453,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.02104595992112046</v>
+        <v>-0.04394395455001431</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.1047844439846318</v>
+        <v>0.1028354549764277</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.4545760444529267</v>
+        <v>-0.4541794322997526</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>-0.04542365461579377</v>
+        <v>-0.04559395576132982</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.04364380688254609</v>
+        <v>-0.01746930910381323</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.4767339465323202</v>
+        <v>-0.5149754801660198</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.1775951482312036</v>
+        <v>-0.1883255745966511</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.1380967148941154</v>
+        <v>-0.07601752000989036</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.5687168294402373</v>
+        <v>-0.5606726772424728</v>
       </c>
     </row>
     <row r="28">
@@ -1527,31 +1527,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-2.87849611838321</v>
+        <v>-2.987400270078554</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-2.251699024114392</v>
+        <v>-2.580022600772767</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-3.009658350211439</v>
+        <v>-2.814015019630591</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-6.341906928720944</v>
+        <v>-6.256371833489243</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-5.545006820434451</v>
+        <v>-5.307067833986213</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-5.63337223011288</v>
+        <v>-5.823802730383502</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-4.239134103417743</v>
+        <v>-4.282963725747304</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-3.699683837200737</v>
+        <v>-3.586848076066149</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-4.108681656635711</v>
+        <v>-4.01931161951827</v>
       </c>
     </row>
     <row r="30">
@@ -1562,31 +1562,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.5186938838299406</v>
+        <v>0.5434488508832279</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.15561570381488</v>
+        <v>1.144195401195231</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.3347325731920674</v>
+        <v>0.3204307940887906</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>-2.113238100238897</v>
+        <v>-2.103516879128228</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-1.3289781286948</v>
+        <v>-1.159655435599699</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-1.771190415494378</v>
+        <v>-1.890157280668626</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>-1.495378844300567</v>
+        <v>-1.492992029450152</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-0.7737812144766393</v>
+        <v>-0.8402261660766958</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-1.354747475531655</v>
+        <v>-1.431228029409644</v>
       </c>
     </row>
     <row r="31">
@@ -1603,7 +1603,7 @@
         <v>-0.2338529144993786</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.5460566832955542</v>
+        <v>-0.5460566832955541</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>-0.7977818099189219</v>
@@ -1632,31 +1632,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.8779101952097743</v>
+        <v>-0.8966467847456583</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.7172519189456974</v>
+        <v>-0.76664656267554</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.8517249187953073</v>
+        <v>-0.8843195172801187</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.928862557100924</v>
+        <v>-0.9359500860902065</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.8199644218132753</v>
+        <v>-0.8172047048163845</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.8434799974017264</v>
+        <v>-0.8442282971072776</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.865256624773754</v>
+        <v>-0.8818690491016592</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.7377403422587062</v>
+        <v>-0.7415768658411896</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.8057477879086409</v>
+        <v>-0.8117965385179511</v>
       </c>
     </row>
     <row r="33">
@@ -1667,31 +1667,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.7238650353967787</v>
+        <v>0.8520111896775302</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.421700708852109</v>
+        <v>0.9970494865188964</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.987101363466389</v>
+        <v>0.6148285234695861</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>-0.5268000414849444</v>
+        <v>-0.4985550544699884</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.3342448345070996</v>
+        <v>-0.2854552480647751</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.4896144558225958</v>
+        <v>-0.4747829820569415</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>-0.499278599316963</v>
+        <v>-0.4939947603113718</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.2286701772577499</v>
+        <v>-0.2574794400941643</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.4399664126036965</v>
+        <v>-0.4632595230579279</v>
       </c>
     </row>
     <row r="34">
@@ -1741,31 +1741,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-4.040525055210162</v>
+        <v>-4.152831216477085</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-5.621383923696047</v>
+        <v>-5.466443998593858</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-5.972027284923946</v>
+        <v>-5.896570516049078</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-4.490801852895047</v>
+        <v>-4.483817687803353</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-3.54074239281749</v>
+        <v>-3.623128730030396</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-5.400738265568634</v>
+        <v>-5.460260057302374</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-4.028379915750739</v>
+        <v>-3.935928265918635</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-3.371273268673598</v>
+        <v>-3.472732289886823</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-5.015601559114583</v>
+        <v>-5.05192147126448</v>
       </c>
     </row>
     <row r="36">
@@ -1776,31 +1776,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>1.172569310067124</v>
+        <v>1.013843228639243</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>-0.9064305870832108</v>
+        <v>-0.9777212729650512</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>-1.503996300408205</v>
+        <v>-1.501400223296525</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>-1.582344536279375</v>
+        <v>-1.758756470925601</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>-0.4521501367328672</v>
+        <v>-0.3178043312860916</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>-2.860282585991787</v>
+        <v>-2.868818110158461</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>-1.443403723684218</v>
+        <v>-1.300169135377831</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>-0.766872104154128</v>
+        <v>-0.7702536597529051</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>-2.928066418106277</v>
+        <v>-2.846603288530897</v>
       </c>
     </row>
     <row r="37">
@@ -1846,29 +1846,29 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.8189400075062507</v>
+        <v>-0.8648067764818221</v>
       </c>
       <c r="D38" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="E38" s="6" t="inlineStr"/>
       <c r="F38" s="6" t="n">
-        <v>-0.8033207057492248</v>
+        <v>-0.799989451440796</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.6445798549493746</v>
+        <v>-0.6483101550614421</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.9409305212247965</v>
+        <v>-0.9443442393986667</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.7704301138272532</v>
+        <v>-0.7714111239911089</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.6628158435090796</v>
+        <v>-0.6680583330331842</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.9475577524447973</v>
+        <v>-0.9555046487560357</v>
       </c>
     </row>
     <row r="39">
@@ -1879,29 +1879,29 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1.185632988568701</v>
+        <v>0.9477016488710306</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1.034353057563955</v>
+        <v>0.1352198560196055</v>
       </c>
       <c r="E39" s="6" t="inlineStr"/>
       <c r="F39" s="6" t="n">
-        <v>-0.4146683292689866</v>
+        <v>-0.4240738779984634</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>-0.08835519203161708</v>
+        <v>-0.06765840459674717</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>-0.7460423188200119</v>
+        <v>-0.7382464429324301</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>-0.3779511868592861</v>
+        <v>-0.3447685178772811</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>-0.203004093191211</v>
+        <v>-0.1768518158100814</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>-0.7890739528575006</v>
+        <v>-0.7847112653398417</v>
       </c>
     </row>
     <row r="40">
@@ -1922,7 +1922,7 @@
         <v>-1.587386501016876</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>-1.969842876345754</v>
+        <v>-1.969842876345753</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>-3.054301126815228</v>
@@ -1951,31 +1951,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-2.082692215982326</v>
+        <v>-2.046907495122034</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-2.443229527458707</v>
+        <v>-2.292425032650742</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-2.753821054750263</v>
+        <v>-2.596476502173718</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-3.913958028938207</v>
+        <v>-3.921852632680454</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-3.453030239676123</v>
+        <v>-3.412965152770887</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-4.219906452242092</v>
+        <v>-4.293208322126961</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-2.704089273787644</v>
+        <v>-2.716277456520613</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-2.660928842450868</v>
+        <v>-2.633825011685643</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-3.291531290107022</v>
+        <v>-3.25809823802985</v>
       </c>
     </row>
     <row r="42">
@@ -1986,31 +1986,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>-0.5788252259656663</v>
+        <v>-0.5595356712267263</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>-0.8909417252213614</v>
+        <v>-0.8712100061458363</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>-1.305418987307789</v>
+        <v>-1.240429258377013</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>-2.200885325210482</v>
+        <v>-2.208551965579638</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>-1.698956922386814</v>
+        <v>-1.661185741951261</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>-2.658151684955629</v>
+        <v>-2.731423403628257</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>-1.569593991364153</v>
+        <v>-1.619967085097583</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>-1.434494978406551</v>
+        <v>-1.445545828945789</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>-2.177215718999209</v>
+        <v>-2.228179186605819</v>
       </c>
     </row>
     <row r="43">
@@ -2027,7 +2027,7 @@
         <v>-0.5380514971240569</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>-0.6676867341621193</v>
+        <v>-0.6676867341621191</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>-0.651549916579885</v>
@@ -2056,31 +2056,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.6094045374456892</v>
+        <v>-0.5982847858814235</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.6919679755238471</v>
+        <v>-0.6853590852593909</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.7852181937731726</v>
+        <v>-0.7752595831001445</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.747766187829631</v>
+        <v>-0.74832908421318</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.6500678457789529</v>
+        <v>-0.6548519748643034</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.8050089836859892</v>
+        <v>-0.8094942395232823</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.6582473017880928</v>
+        <v>-0.6584795369302411</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.6366972758586735</v>
+        <v>-0.637067640806784</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.7716907635553683</v>
+        <v>-0.7774841910923946</v>
       </c>
     </row>
     <row r="45">
@@ -2091,31 +2091,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>-0.1934110066603668</v>
+        <v>-0.2193793839673609</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>-0.322780310816434</v>
+        <v>-0.3287392498332697</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>-0.4999210059635462</v>
+        <v>-0.4830371271285742</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>-0.5177619248077483</v>
+        <v>-0.5224133790552556</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>-0.3918033118599319</v>
+        <v>-0.3838249163945384</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>-0.647408248212871</v>
+        <v>-0.6531015311128094</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>-0.4515095642354912</v>
+        <v>-0.4653178857599662</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>-0.4144850009027861</v>
+        <v>-0.4217077851439802</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>-0.6324051989407335</v>
+        <v>-0.6298039743705092</v>
       </c>
     </row>
     <row r="46">
